--- a/data/trans_camb/P14B23_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.901277460413367</v>
+        <v>-3.824718024200706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.265808424188362</v>
+        <v>-7.666563866343583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.602719455747524</v>
+        <v>-4.384521607430815</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7510537759217939</v>
+        <v>0.810420784242696</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2215453249790304</v>
+        <v>-0.2728343084926755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3890362546624729</v>
+        <v>-0.3966344417329895</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8790907327480076</v>
+        <v>-0.8878548862287313</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7300806993560059</v>
+        <v>-0.7218765481441135</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6967573230826587</v>
+        <v>-0.6876822701418633</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.131988278256427</v>
+        <v>1.06116757695705</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03441656480958896</v>
+        <v>-0.01458289922385234</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.07055280700328537</v>
+        <v>-0.06761714609339202</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.955447181420846</v>
+        <v>2.955447181420845</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>5.049449215609719</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.122759903115355</v>
+        <v>1.117771280664344</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.438442521049073</v>
+        <v>2.271354710366837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.411121377977457</v>
+        <v>2.41558648350586</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.201153665809423</v>
+        <v>5.276330688313333</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.748854582069817</v>
+        <v>8.02726326856153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.772512280889798</v>
+        <v>5.958506350361406</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>2.773364268466539</v>
+        <v>2.773364268466538</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.21316969633901</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3742601954872322</v>
+        <v>0.3510188755021739</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3866208851573532</v>
+        <v>0.3828318988945205</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6516187997920966</v>
+        <v>0.6632364925848541</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11.64032220564568</v>
+        <v>9.806065715211183</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.785847193617224</v>
+        <v>2.597834487539802</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.937060310872356</v>
+        <v>2.992534177757415</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.476295269252141</v>
+        <v>2.407706738356531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.209946459288323</v>
+        <v>-2.622736462545503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.726280461562744</v>
+        <v>0.8096247268281467</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.91608991942395</v>
+        <v>7.099588169281235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.500897595648913</v>
+        <v>3.217684634661254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.364201870788228</v>
+        <v>4.342883542228772</v>
       </c>
     </row>
     <row r="19">
@@ -847,10 +847,10 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.3754183899011665</v>
+        <v>-0.4071660642206437</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1609411298279818</v>
+        <v>0.1902099277663135</v>
       </c>
     </row>
     <row r="21">
@@ -862,10 +862,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>1.448020114759849</v>
+        <v>1.289455425855389</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.325882846655366</v>
+        <v>3.05769382205014</v>
       </c>
     </row>
     <row r="22">
@@ -886,7 +886,7 @@
         <v>1.862369547760383</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.378691165886979</v>
+        <v>2.37869116588698</v>
       </c>
     </row>
     <row r="23">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5531826785342895</v>
+        <v>0.431076907732056</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6354677917609747</v>
+        <v>-0.7322339409724944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5962473367987675</v>
+        <v>0.7618008147492364</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.051660998296303</v>
+        <v>5.81038073006381</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.114646590512973</v>
+        <v>4.228191395965199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.292823716039833</v>
+        <v>4.379908061965464</v>
       </c>
     </row>
     <row r="25">
@@ -934,10 +934,10 @@
         <v>2.146547861312305</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.6301212505705838</v>
+        <v>0.630121250570584</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.095800738954343</v>
+        <v>1.095800738954344</v>
       </c>
     </row>
     <row r="26">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1082252877993877</v>
+        <v>-0.0271652557668907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1590523724291607</v>
+        <v>-0.1982410855087993</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1421569912183935</v>
+        <v>0.153536152224231</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10.03272822120401</v>
+        <v>10.98636010410022</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.424993440850649</v>
+        <v>2.549350436967421</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.99382656843464</v>
+        <v>3.129968930674734</v>
       </c>
     </row>
     <row r="28">
@@ -989,7 +989,7 @@
         <v>-2.462502074815506</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-2.571214747530311</v>
+        <v>-2.571214747530312</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-2.479289124847686</v>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.692512207862966</v>
+        <v>-5.740109315993697</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.389294705437647</v>
+        <v>-6.716915220132407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.790442977910068</v>
+        <v>-4.975853753509755</v>
       </c>
     </row>
     <row r="30">
@@ -1020,13 +1020,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2213994035973354</v>
+        <v>-0.2042150107870341</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2935581751478803</v>
+        <v>0.5203231148435205</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.397192911658256</v>
+        <v>-0.5036087721796854</v>
       </c>
     </row>
     <row r="31">
@@ -1040,10 +1040,10 @@
         <v>-0.6788059524846228</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.4245693108105988</v>
+        <v>-0.424569310810599</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.5098602317504282</v>
+        <v>-0.5098602317504283</v>
       </c>
     </row>
     <row r="32">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9361518378627749</v>
+        <v>-0.9217361304014082</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7029599267078067</v>
+        <v>-0.7205525837217026</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7184819754273091</v>
+        <v>-0.739354413360127</v>
       </c>
     </row>
     <row r="33">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2828859323522339</v>
+        <v>0.2130134776984079</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1386039398308527</v>
+        <v>0.1588777134209152</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08047457700327823</v>
+        <v>-0.119769804565826</v>
       </c>
     </row>
     <row r="34">
@@ -1098,7 +1098,7 @@
         <v>-3.587173925675601</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.05079762367407106</v>
+        <v>0.05079762367407176</v>
       </c>
     </row>
     <row r="35">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.880146696209336</v>
+        <v>1.912765296803623</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.35298074440689</v>
+        <v>-7.344599491683296</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.441867218791092</v>
+        <v>-2.332272153804251</v>
       </c>
     </row>
     <row r="36">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.500700004150489</v>
+        <v>6.492392807924162</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2866256671595679</v>
+        <v>-0.1045311687090484</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.960948636397978</v>
+        <v>2.244647002404206</v>
       </c>
     </row>
     <row r="37">
@@ -1149,7 +1149,7 @@
         <v>-0.4512217789247041</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.01168504825962652</v>
+        <v>0.01168504825962668</v>
       </c>
     </row>
     <row r="38">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4989519182113201</v>
+        <v>0.8342412050477244</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7089475211964786</v>
+        <v>-0.6873095188722713</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4046918004829964</v>
+        <v>-0.3770004440588786</v>
       </c>
     </row>
     <row r="39">
@@ -1178,10 +1178,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>-0.02365462237450016</v>
+        <v>0.01058163516364847</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6766854917425115</v>
+        <v>0.7127932945097775</v>
       </c>
     </row>
     <row r="40">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.909702872545306</v>
+        <v>1.792016496547043</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.181568809092747</v>
+        <v>2.152624510233795</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.718697950950435</v>
+        <v>2.623923227021276</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.895538705574103</v>
+        <v>5.737120391847908</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.58045833227682</v>
+        <v>6.444461713140592</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.551363438372793</v>
+        <v>5.548557228032632</v>
       </c>
     </row>
     <row r="43">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.9395818744111835</v>
+        <v>0.5804569065316684</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4864221922544333</v>
+        <v>0.4893863959701766</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.015305621134109</v>
+        <v>0.9557971559855791</v>
       </c>
     </row>
     <row r="45">
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>15.64271717411037</v>
+        <v>15.01635464319405</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.373100724207444</v>
+        <v>3.603156314788118</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.196493573252194</v>
+        <v>4.156314625693118</v>
       </c>
     </row>
     <row r="46">
@@ -1305,7 +1305,7 @@
         <v>0.3096179767393858</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1.617742938018358</v>
+        <v>1.617742938018359</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.965298955022623</v>
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.9524213239768242</v>
+        <v>-1.046159455321154</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4333286956590101</v>
+        <v>-0.3630683784081143</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.3079598647277491</v>
+        <v>-0.2638600305083191</v>
       </c>
     </row>
     <row r="48">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.710954575037754</v>
+        <v>1.557945200404137</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.651810440564462</v>
+        <v>3.615086427795338</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.208258130857157</v>
+        <v>2.148205368477741</v>
       </c>
     </row>
     <row r="49">
@@ -1356,7 +1356,7 @@
         <v>0.1824677024998837</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.3981203461304921</v>
+        <v>0.3981203461304923</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.3311225156195404</v>
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4527595880670561</v>
+        <v>-0.464373255046917</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.08639979059818752</v>
+        <v>-0.071286363626236</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.09255837512793685</v>
+        <v>-0.07799615129040371</v>
       </c>
     </row>
     <row r="51">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.568909176616257</v>
+        <v>1.460447143837778</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.277156151253414</v>
+        <v>1.249102062408246</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9600951649743967</v>
+        <v>0.9392236020035971</v>
       </c>
     </row>
     <row r="52">
@@ -1411,7 +1411,7 @@
         <v>1.963142990799373</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>1.573588621426604</v>
+        <v>1.573588621426605</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>1.772527167003445</v>
@@ -1425,13 +1425,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.190951588174656</v>
+        <v>1.228129928113821</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.6001555088381689</v>
+        <v>0.5740749148724088</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.119041710876134</v>
+        <v>1.21355673115653</v>
       </c>
     </row>
     <row r="54">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.706745787508257</v>
+        <v>2.716385812342118</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.573428124883754</v>
+        <v>2.552314103422611</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.40045395399983</v>
+        <v>2.385338612565823</v>
       </c>
     </row>
     <row r="55">
@@ -1462,7 +1462,7 @@
         <v>1.432850874760139</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.3598343901705934</v>
+        <v>0.3598343901705935</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.6103982339853368</v>
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.7321300313691873</v>
+        <v>0.7203401844676323</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.120265249336391</v>
+        <v>0.1149152907838642</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3365504929652709</v>
+        <v>0.3642764572227427</v>
       </c>
     </row>
     <row r="57">
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.609436315962792</v>
+        <v>2.563287552707104</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6837749070919151</v>
+        <v>0.6509220197584513</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9136891810451411</v>
+        <v>0.9099461187934732</v>
       </c>
     </row>
     <row r="58">
